--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vrobw\Desktop\Revature\P3\uipath-automation-2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239746C5-B705-449B-8F80-5DEDAF3D7E3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4007FEC-F060-4CF9-9BF5-416155DCD85A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2004" yWindow="756" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -155,6 +155,18 @@
   </si>
   <si>
     <t>Sheet name in workbook to read from, to demonstrate purpose of Dispatcher.xaml.</t>
+  </si>
+  <si>
+    <t>SheetKey</t>
+  </si>
+  <si>
+    <t>GSuiteAPIKey</t>
+  </si>
+  <si>
+    <t>GSuiteAPIKeyPath</t>
+  </si>
+  <si>
+    <t>Data/APIKey.txt</t>
   </si>
 </sst>
 </file>
@@ -533,7 +545,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -625,7 +637,14 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2757,7 +2776,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -2801,7 +2822,14 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vrobw\Desktop\Revature\P3\uipath-automation-2\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\201019-UTA0UiPath\uipath-automation-2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4007FEC-F060-4CF9-9BF5-416155DCD85A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDDF28A-4163-4FF7-AE04-FAB2E094782B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2004" yWindow="756" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4305" yWindow="3720" windowWidth="28800" windowHeight="15420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>Name</t>
   </si>
@@ -155,18 +155,6 @@
   </si>
   <si>
     <t>Sheet name in workbook to read from, to demonstrate purpose of Dispatcher.xaml.</t>
-  </si>
-  <si>
-    <t>SheetKey</t>
-  </si>
-  <si>
-    <t>GSuiteAPIKey</t>
-  </si>
-  <si>
-    <t>GSuiteAPIKeyPath</t>
-  </si>
-  <si>
-    <t>Data/APIKey.txt</t>
   </si>
 </sst>
 </file>
@@ -544,16 +532,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.77734375" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -602,7 +590,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="28.8">
+    <row r="4" spans="1:26" ht="30">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -637,14 +625,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
-    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1648,12 +1629,12 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.33203125" customWidth="1"/>
-    <col min="4" max="26" width="8.77734375" customWidth="1"/>
+    <col min="3" max="3" width="75.28515625" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1690,7 +1671,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2776,16 +2757,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.77734375" customWidth="1"/>
-    <col min="2" max="2" width="30.21875" customWidth="1"/>
-    <col min="3" max="3" width="60.21875" customWidth="1"/>
-    <col min="4" max="26" width="65.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -2822,14 +2803,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-    </row>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\201019-UTA0UiPath\uipath-automation-2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDDF28A-4163-4FF7-AE04-FAB2E094782B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1D4A94-80C4-4808-BE98-77A84D0B4D1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4305" yWindow="3720" windowWidth="28800" windowHeight="15420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4305" yWindow="3720" windowWidth="28800" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>Name</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>Sheet name in workbook to read from, to demonstrate purpose of Dispatcher.xaml.</t>
+  </si>
+  <si>
+    <t>GithubCredential</t>
   </si>
 </sst>
 </file>
@@ -532,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -625,7 +628,14 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2757,7 +2767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\201019-UTA0UiPath\uipath-automation-2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1D4A94-80C4-4808-BE98-77A84D0B4D1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CA01E2-F761-4E54-9CF4-2655AE9371E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4305" yWindow="3720" windowWidth="28800" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4305" yWindow="3720" windowWidth="28800" windowHeight="15420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -535,7 +535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -1635,8 +1635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\201019-UTA0UiPath\uipath-automation-2\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ohhey\Desktop\Revature_Workspace\uipath-automation-2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CA01E2-F761-4E54-9CF4-2655AE9371E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2F4F94-8F16-40D7-B55C-DCE7B6926530}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4305" yWindow="3720" windowWidth="28800" windowHeight="15420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1830" yWindow="1830" windowWidth="17280" windowHeight="8994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -158,6 +158,15 @@
   </si>
   <si>
     <t>GithubCredential</t>
+  </si>
+  <si>
+    <t>GoogleCredential</t>
+  </si>
+  <si>
+    <t>Credential for signing into the users Google account</t>
+  </si>
+  <si>
+    <t>Credential for signing into the users GitHub account</t>
   </si>
 </sst>
 </file>
@@ -535,16 +544,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.41796875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.578125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="81.41796875" customWidth="1"/>
+    <col min="4" max="26" width="8.68359375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -593,7 +602,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="30">
+    <row r="4" spans="1:26" ht="28.8">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -635,8 +644,21 @@
       <c r="B9" t="s">
         <v>43</v>
       </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1635,16 +1657,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.41796875" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.28515625" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="75.26171875" customWidth="1"/>
+    <col min="4" max="26" width="8.68359375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1681,7 +1703,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="30">
+    <row r="2" spans="1:26" ht="28.8">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2771,12 +2793,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.41796875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="26" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.68359375" customWidth="1"/>
+    <col min="2" max="2" width="30.26171875" customWidth="1"/>
+    <col min="3" max="3" width="60.26171875" customWidth="1"/>
+    <col min="4" max="26" width="65.41796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ohhey\Desktop\Revature_Workspace\uipath-automation-2\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\201019-UTA0UiPath\uipath-automation-2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2F4F94-8F16-40D7-B55C-DCE7B6926530}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C52961-5AB3-447E-81B0-9C33E5E81597}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1830" yWindow="1830" windowWidth="17280" windowHeight="8994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4305" yWindow="3720" windowWidth="28800" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -167,6 +167,15 @@
   </si>
   <si>
     <t>Credential for signing into the users GitHub account</t>
+  </si>
+  <si>
+    <t>InputFileRelativePath</t>
+  </si>
+  <si>
+    <t>\Documents\RevatureAutomationFiles\BatchOrganizationInput.txt</t>
+  </si>
+  <si>
+    <t>The filepath used to get the input data from the user's account. This string gets added to C:\Users\&lt;UserName&gt;</t>
   </si>
 </sst>
 </file>
@@ -545,15 +554,15 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.41796875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.578125" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.41796875" customWidth="1"/>
-    <col min="4" max="26" width="8.68359375" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -602,7 +611,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="28.8">
+    <row r="4" spans="1:26" ht="30">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -660,7 +669,17 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1661,12 +1680,12 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.41796875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.26171875" customWidth="1"/>
-    <col min="4" max="26" width="8.68359375" customWidth="1"/>
+    <col min="3" max="3" width="75.28515625" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1703,7 +1722,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2793,12 +2812,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.41796875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.68359375" customWidth="1"/>
-    <col min="2" max="2" width="30.26171875" customWidth="1"/>
-    <col min="3" max="3" width="60.26171875" customWidth="1"/>
-    <col min="4" max="26" width="65.41796875" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\201019-UTA0UiPath\uipath-automation-2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C52961-5AB3-447E-81B0-9C33E5E81597}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D8915E-CC2A-42F7-8F91-C88321D18281}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4305" yWindow="3720" windowWidth="28800" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -176,6 +176,15 @@
   </si>
   <si>
     <t>The filepath used to get the input data from the user's account. This string gets added to C:\Users\&lt;UserName&gt;</t>
+  </si>
+  <si>
+    <t>FileName</t>
+  </si>
+  <si>
+    <t>BatchOrganizationInput.txt</t>
+  </si>
+  <si>
+    <t>The name of the file created when filling out the form in the GetForm component</t>
   </si>
 </sst>
 </file>
@@ -554,7 +563,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -680,7 +689,17 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\201019-UTA0UiPath\uipath-automation-2\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vrobw\Desktop\Revature\P3\uipath-automation-2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D8915E-CC2A-42F7-8F91-C88321D18281}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA77C2D-55F8-4DCC-B8BF-0E588F8EDBDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4305" yWindow="3720" windowWidth="28800" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -87,9 +87,6 @@
     <t>logF_BusinessProcessName</t>
   </si>
   <si>
-    <t>Framework</t>
-  </si>
-  <si>
     <t>ProcessABCQueue</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>The name of the file created when filling out the form in the GetForm component</t>
+  </si>
+  <si>
+    <t>BatchGitHubOrgCreation</t>
   </si>
 </sst>
 </file>
@@ -563,15 +563,15 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.5546875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="81.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -610,94 +610,94 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="30">
+    <row r="4" spans="1:26" ht="28.8">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
         <v>39</v>
       </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
         <v>44</v>
-      </c>
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
         <v>47</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>48</v>
-      </c>
-      <c r="C12" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
         <v>50</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>51</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1699,12 +1699,12 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.28515625" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="75.33203125" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1741,7 +1741,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="30">
+    <row r="2" spans="1:26" ht="28.8">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1773,7 +1773,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
@@ -1795,7 +1795,7 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
@@ -1806,7 +1806,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -1817,30 +1817,30 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
         <v>31</v>
       </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2831,12 +2831,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="26" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" customWidth="1"/>
+    <col min="4" max="26" width="65.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vrobw\Desktop\Revature\P3\uipath-automation-2\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\201019-UTA0UiPath\uipath-automation-2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA77C2D-55F8-4DCC-B8BF-0E588F8EDBDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E99D71B-6EDA-4689-9EF4-B245E4517B5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3975" yWindow="5580" windowWidth="28800" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -169,9 +169,6 @@
     <t>InputFileRelativePath</t>
   </si>
   <si>
-    <t>\Documents\RevatureAutomationFiles\BatchOrganizationInput.txt</t>
-  </si>
-  <si>
     <t>The filepath used to get the input data from the user's account. This string gets added to C:\Users\&lt;UserName&gt;</t>
   </si>
   <si>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>BatchGitHubOrgCreation</t>
+  </si>
+  <si>
+    <t>\RevatureAutomationFiles\</t>
   </si>
 </sst>
 </file>
@@ -563,15 +563,15 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -620,12 +620,12 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="28.8">
+    <row r="4" spans="1:26" ht="30">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>23</v>
@@ -683,21 +683,21 @@
         <v>46</v>
       </c>
       <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
         <v>47</v>
-      </c>
-      <c r="C12" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
         <v>49</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>50</v>
-      </c>
-      <c r="C13" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1699,12 +1699,12 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.33203125" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="75.28515625" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1741,7 +1741,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2831,12 +2831,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
-    <col min="4" max="26" width="65.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
